--- a/Organisation/Auto-Eval-ASI2-r1.xlsx
+++ b/Organisation/Auto-Eval-ASI2-r1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29F747F-1E56-45EA-802F-B1948D254FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE016040-9BF7-4FD6-AACE-B319DAA2759A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Auteur</author>
+    <author>Author</author>
   </authors>
   <commentList>
     <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
@@ -97,7 +97,7 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Auteur</author>
+    <author>Author</author>
   </authors>
   <commentList>
     <comment ref="A6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
@@ -166,9 +166,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>Etudiant B</t>
-  </si>
-  <si>
     <t>Etudiant C</t>
   </si>
   <si>
@@ -298,9 +295,6 @@
     <t>Atelier3</t>
   </si>
   <si>
-    <t>Etudiant Timothée Labrosse</t>
-  </si>
-  <si>
     <t>aucune notion</t>
   </si>
   <si>
@@ -329,6 +323,12 @@
   </si>
   <si>
     <t xml:space="preserve">mise en œuvre total en autonomie </t>
+  </si>
+  <si>
+    <t>THOUVENIN Nicolas</t>
+  </si>
+  <si>
+    <t>LABROSSE Timothée</t>
   </si>
 </sst>
 </file>
@@ -410,7 +410,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -432,34 +432,71 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="276">
+  <dxfs count="92">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -981,1348 +1018,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2430,7 +1125,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2753,41 +1448,41 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="27.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D1" s="15" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E1" s="15"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="16" t="s">
+      <c r="F1" s="18"/>
+      <c r="G1" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="15"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="20"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="16" t="s">
+      <c r="K1" s="15"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="20"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="20"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D2" s="2" t="s">
@@ -2797,7 +1492,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>1</v>
@@ -2806,7 +1501,7 @@
         <v>2</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>1</v>
@@ -2815,7 +1510,7 @@
         <v>2</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>1</v>
@@ -2824,7 +1519,7 @@
         <v>2</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>1</v>
@@ -2833,7 +1528,7 @@
         <v>2</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
@@ -2862,57 +1557,57 @@
         <v>0.5</v>
       </c>
       <c r="E4" s="5">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="F4" s="5">
         <v>0</v>
       </c>
-      <c r="G4" s="10">
-        <v>0.1</v>
+      <c r="G4" s="5">
+        <v>0.5</v>
       </c>
       <c r="H4" s="5">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="I4" s="5">
         <v>0</v>
       </c>
-      <c r="J4" s="10">
-        <v>0.4</v>
+      <c r="J4" s="5">
+        <v>0</v>
       </c>
       <c r="K4" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="L4" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="M4" s="10">
-        <v>0.4</v>
+        <v>0</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0</v>
       </c>
       <c r="N4" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="O4" s="11">
-        <v>0.5</v>
+        <v>0</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0</v>
       </c>
       <c r="P4" s="10">
         <f>D4+G4+J4+M4</f>
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="5">
         <f>E4+H4+K4+N4</f>
-        <v>0.99999999999999989</v>
+        <v>0</v>
       </c>
       <c r="R4" s="5">
         <f>F4+I4+L4+O4</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -2931,10 +1626,10 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="14"/>
+      <c r="C6" s="17"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -2955,7 +1650,7 @@
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
@@ -2966,8 +1661,8 @@
       <c r="F7" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="12" t="s">
-        <v>14</v>
+      <c r="G7" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="H7" t="s">
         <v>14</v>
@@ -2975,22 +1670,22 @@
       <c r="I7" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="11" t="s">
         <v>14</v>
       </c>
       <c r="K7" t="s">
         <v>14</v>
       </c>
-      <c r="L7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="M7" s="12" t="s">
+      <c r="L7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" s="11" t="s">
         <v>14</v>
       </c>
       <c r="N7" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="13" t="s">
+      <c r="O7" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3000,7 +1695,7 @@
       <c r="C8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" t="s">
         <v>9</v>
       </c>
       <c r="E8" t="s">
@@ -3009,8 +1704,8 @@
       <c r="F8" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="12" t="s">
-        <v>14</v>
+      <c r="G8" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="H8" t="s">
         <v>14</v>
@@ -3018,22 +1713,22 @@
       <c r="I8" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="11" t="s">
         <v>14</v>
       </c>
       <c r="K8" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="M8" s="12" t="s">
+      <c r="L8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="11" t="s">
         <v>14</v>
       </c>
       <c r="N8" t="s">
         <v>14</v>
       </c>
-      <c r="O8" s="13" t="s">
+      <c r="O8" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3041,7 +1736,7 @@
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -3052,8 +1747,8 @@
       <c r="F9" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="12" t="s">
-        <v>14</v>
+      <c r="G9" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="H9" t="s">
         <v>14</v>
@@ -3061,22 +1756,22 @@
       <c r="I9" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="11" t="s">
         <v>14</v>
       </c>
       <c r="K9" t="s">
         <v>14</v>
       </c>
-      <c r="L9" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="M9" s="12" t="s">
+      <c r="L9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" s="11" t="s">
         <v>14</v>
       </c>
       <c r="N9" t="s">
         <v>14</v>
       </c>
-      <c r="O9" s="13" t="s">
+      <c r="O9" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3084,42 +1779,42 @@
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="H10" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I10" t="s">
-        <v>11</v>
-      </c>
-      <c r="J10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="11" t="s">
         <v>14</v>
       </c>
       <c r="K10" t="s">
         <v>14</v>
       </c>
-      <c r="L10" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="M10" s="12" t="s">
+      <c r="L10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10" s="11" t="s">
         <v>14</v>
       </c>
       <c r="N10" t="s">
         <v>14</v>
       </c>
-      <c r="O10" s="13" t="s">
+      <c r="O10" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3127,7 +1822,7 @@
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
@@ -3138,8 +1833,8 @@
       <c r="F11" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="12" t="s">
-        <v>14</v>
+      <c r="G11" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="H11" t="s">
         <v>14</v>
@@ -3147,22 +1842,22 @@
       <c r="I11" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="12" t="s">
+      <c r="J11" s="11" t="s">
         <v>14</v>
       </c>
       <c r="K11" t="s">
         <v>14</v>
       </c>
-      <c r="L11" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="M11" s="12" t="s">
+      <c r="L11" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M11" s="11" t="s">
         <v>14</v>
       </c>
       <c r="N11" t="s">
         <v>14</v>
       </c>
-      <c r="O11" s="13" t="s">
+      <c r="O11" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3170,7 +1865,7 @@
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
@@ -3181,8 +1876,8 @@
       <c r="F12" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="12" t="s">
-        <v>14</v>
+      <c r="G12" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="H12" t="s">
         <v>14</v>
@@ -3190,22 +1885,22 @@
       <c r="I12" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="J12" s="11" t="s">
         <v>14</v>
       </c>
       <c r="K12" t="s">
         <v>14</v>
       </c>
-      <c r="L12" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="M12" s="12" t="s">
+      <c r="L12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M12" s="11" t="s">
         <v>14</v>
       </c>
       <c r="N12" t="s">
         <v>14</v>
       </c>
-      <c r="O12" s="13" t="s">
+      <c r="O12" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3213,7 +1908,7 @@
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
@@ -3224,8 +1919,8 @@
       <c r="F13" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="12" t="s">
-        <v>14</v>
+      <c r="G13" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="H13" t="s">
         <v>14</v>
@@ -3233,22 +1928,22 @@
       <c r="I13" t="s">
         <v>14</v>
       </c>
-      <c r="J13" s="12" t="s">
+      <c r="J13" s="11" t="s">
         <v>14</v>
       </c>
       <c r="K13" t="s">
         <v>14</v>
       </c>
-      <c r="L13" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="M13" s="12" t="s">
+      <c r="L13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M13" s="11" t="s">
         <v>14</v>
       </c>
       <c r="N13" t="s">
         <v>14</v>
       </c>
-      <c r="O13" s="13" t="s">
+      <c r="O13" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3256,7 +1951,7 @@
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
         <v>13</v>
@@ -3267,8 +1962,8 @@
       <c r="F14" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="12" t="s">
-        <v>14</v>
+      <c r="G14" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="H14" t="s">
         <v>14</v>
@@ -3276,22 +1971,22 @@
       <c r="I14" t="s">
         <v>14</v>
       </c>
-      <c r="J14" s="12" t="s">
+      <c r="J14" s="11" t="s">
         <v>14</v>
       </c>
       <c r="K14" t="s">
         <v>14</v>
       </c>
-      <c r="L14" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="M14" s="12" t="s">
+      <c r="L14" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M14" s="11" t="s">
         <v>14</v>
       </c>
       <c r="N14" t="s">
         <v>14</v>
       </c>
-      <c r="O14" s="13" t="s">
+      <c r="O14" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3299,7 +1994,7 @@
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
         <v>10</v>
@@ -3310,8 +2005,8 @@
       <c r="F15" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="12" t="s">
-        <v>14</v>
+      <c r="G15" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="H15" t="s">
         <v>14</v>
@@ -3319,22 +2014,22 @@
       <c r="I15" t="s">
         <v>14</v>
       </c>
-      <c r="J15" s="12" t="s">
+      <c r="J15" s="11" t="s">
         <v>14</v>
       </c>
       <c r="K15" t="s">
         <v>14</v>
       </c>
-      <c r="L15" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="M15" s="12" t="s">
+      <c r="L15" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M15" s="11" t="s">
         <v>14</v>
       </c>
       <c r="N15" t="s">
         <v>14</v>
       </c>
-      <c r="O15" s="13" t="s">
+      <c r="O15" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3342,7 +2037,7 @@
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
         <v>11</v>
@@ -3353,8 +2048,8 @@
       <c r="F16" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="12" t="s">
-        <v>14</v>
+      <c r="G16" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="H16" t="s">
         <v>14</v>
@@ -3362,22 +2057,22 @@
       <c r="I16" t="s">
         <v>14</v>
       </c>
-      <c r="J16" s="12" t="s">
+      <c r="J16" s="11" t="s">
         <v>14</v>
       </c>
       <c r="K16" t="s">
         <v>14</v>
       </c>
-      <c r="L16" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="M16" s="12" t="s">
+      <c r="L16" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M16" s="11" t="s">
         <v>14</v>
       </c>
       <c r="N16" t="s">
         <v>14</v>
       </c>
-      <c r="O16" s="13" t="s">
+      <c r="O16" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3385,7 +2080,7 @@
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" t="s">
         <v>10</v>
@@ -3396,8 +2091,8 @@
       <c r="F17" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="12" t="s">
-        <v>14</v>
+      <c r="G17" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="H17" t="s">
         <v>14</v>
@@ -3405,22 +2100,22 @@
       <c r="I17" t="s">
         <v>14</v>
       </c>
-      <c r="J17" s="12" t="s">
+      <c r="J17" s="11" t="s">
         <v>14</v>
       </c>
       <c r="K17" t="s">
         <v>14</v>
       </c>
-      <c r="L17" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="M17" s="12" t="s">
+      <c r="L17" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M17" s="11" t="s">
         <v>14</v>
       </c>
       <c r="N17" t="s">
         <v>14</v>
       </c>
-      <c r="O17" s="13" t="s">
+      <c r="O17" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3428,7 +2123,7 @@
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" t="s">
         <v>10</v>
@@ -3439,8 +2134,8 @@
       <c r="F18" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="12" t="s">
-        <v>14</v>
+      <c r="G18" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="H18" t="s">
         <v>14</v>
@@ -3448,22 +2143,22 @@
       <c r="I18" t="s">
         <v>14</v>
       </c>
-      <c r="J18" s="12" t="s">
+      <c r="J18" s="11" t="s">
         <v>14</v>
       </c>
       <c r="K18" t="s">
         <v>14</v>
       </c>
-      <c r="L18" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="M18" s="12" t="s">
+      <c r="L18" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M18" s="11" t="s">
         <v>14</v>
       </c>
       <c r="N18" t="s">
         <v>14</v>
       </c>
-      <c r="O18" s="13" t="s">
+      <c r="O18" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3471,7 +2166,7 @@
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
@@ -3482,8 +2177,8 @@
       <c r="F19" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="12" t="s">
-        <v>14</v>
+      <c r="G19" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="H19" t="s">
         <v>14</v>
@@ -3491,22 +2186,22 @@
       <c r="I19" t="s">
         <v>14</v>
       </c>
-      <c r="J19" s="12" t="s">
+      <c r="J19" s="11" t="s">
         <v>14</v>
       </c>
       <c r="K19" t="s">
         <v>14</v>
       </c>
-      <c r="L19" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="M19" s="12" t="s">
+      <c r="L19" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M19" s="11" t="s">
         <v>14</v>
       </c>
       <c r="N19" t="s">
         <v>14</v>
       </c>
-      <c r="O19" s="13" t="s">
+      <c r="O19" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3514,7 +2209,7 @@
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D20" t="s">
         <v>11</v>
@@ -3525,8 +2220,8 @@
       <c r="F20" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="12" t="s">
-        <v>14</v>
+      <c r="G20" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="H20" t="s">
         <v>14</v>
@@ -3534,22 +2229,22 @@
       <c r="I20" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="12" t="s">
+      <c r="J20" s="11" t="s">
         <v>14</v>
       </c>
       <c r="K20" t="s">
         <v>14</v>
       </c>
-      <c r="L20" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="M20" s="12" t="s">
+      <c r="L20" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M20" s="11" t="s">
         <v>14</v>
       </c>
       <c r="N20" t="s">
         <v>14</v>
       </c>
-      <c r="O20" s="13" t="s">
+      <c r="O20" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3557,7 +2252,7 @@
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D21" t="s">
         <v>10</v>
@@ -3568,8 +2263,8 @@
       <c r="F21" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="12" t="s">
-        <v>14</v>
+      <c r="G21" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="H21" t="s">
         <v>14</v>
@@ -3577,22 +2272,22 @@
       <c r="I21" t="s">
         <v>14</v>
       </c>
-      <c r="J21" s="12" t="s">
+      <c r="J21" s="11" t="s">
         <v>14</v>
       </c>
       <c r="K21" t="s">
         <v>14</v>
       </c>
-      <c r="L21" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="M21" s="12" t="s">
+      <c r="L21" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M21" s="11" t="s">
         <v>14</v>
       </c>
       <c r="N21" t="s">
         <v>14</v>
       </c>
-      <c r="O21" s="13" t="s">
+      <c r="O21" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3600,7 +2295,7 @@
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D22" t="s">
         <v>13</v>
@@ -3611,8 +2306,8 @@
       <c r="F22" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="12" t="s">
-        <v>14</v>
+      <c r="G22" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="H22" t="s">
         <v>14</v>
@@ -3620,22 +2315,22 @@
       <c r="I22" t="s">
         <v>14</v>
       </c>
-      <c r="J22" s="12" t="s">
+      <c r="J22" s="11" t="s">
         <v>14</v>
       </c>
       <c r="K22" t="s">
         <v>14</v>
       </c>
-      <c r="L22" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="M22" s="12" t="s">
+      <c r="L22" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M22" s="11" t="s">
         <v>14</v>
       </c>
       <c r="N22" t="s">
         <v>14</v>
       </c>
-      <c r="O22" s="13" t="s">
+      <c r="O22" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3643,7 +2338,7 @@
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D23" t="s">
         <v>10</v>
@@ -3654,8 +2349,8 @@
       <c r="F23" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="12" t="s">
-        <v>14</v>
+      <c r="G23" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="H23" t="s">
         <v>14</v>
@@ -3663,22 +2358,22 @@
       <c r="I23" t="s">
         <v>14</v>
       </c>
-      <c r="J23" s="12" t="s">
+      <c r="J23" s="11" t="s">
         <v>14</v>
       </c>
       <c r="K23" t="s">
         <v>14</v>
       </c>
-      <c r="L23" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="M23" s="12" t="s">
+      <c r="L23" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M23" s="11" t="s">
         <v>14</v>
       </c>
       <c r="N23" t="s">
         <v>14</v>
       </c>
-      <c r="O23" s="13" t="s">
+      <c r="O23" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3686,7 +2381,7 @@
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D24" t="s">
         <v>10</v>
@@ -3697,8 +2392,8 @@
       <c r="F24" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="12" t="s">
-        <v>14</v>
+      <c r="G24" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="H24" t="s">
         <v>14</v>
@@ -3706,22 +2401,22 @@
       <c r="I24" t="s">
         <v>14</v>
       </c>
-      <c r="J24" s="12" t="s">
+      <c r="J24" s="11" t="s">
         <v>14</v>
       </c>
       <c r="K24" t="s">
         <v>14</v>
       </c>
-      <c r="L24" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="M24" s="12" t="s">
+      <c r="L24" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M24" s="11" t="s">
         <v>14</v>
       </c>
       <c r="N24" t="s">
         <v>14</v>
       </c>
-      <c r="O24" s="13" t="s">
+      <c r="O24" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3729,7 +2424,7 @@
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D25" t="s">
         <v>10</v>
@@ -3740,8 +2435,8 @@
       <c r="F25" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="12" t="s">
-        <v>14</v>
+      <c r="G25" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="H25" t="s">
         <v>14</v>
@@ -3749,31 +2444,31 @@
       <c r="I25" t="s">
         <v>14</v>
       </c>
-      <c r="J25" s="12" t="s">
+      <c r="J25" s="11" t="s">
         <v>14</v>
       </c>
       <c r="K25" t="s">
         <v>14</v>
       </c>
-      <c r="L25" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="M25" s="12" t="s">
+      <c r="L25" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M25" s="11" t="s">
         <v>14</v>
       </c>
       <c r="N25" t="s">
         <v>14</v>
       </c>
-      <c r="O25" s="13" t="s">
+      <c r="O25" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="14"/>
+      <c r="C26" s="17"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -3802,8 +2497,8 @@
       <c r="F27" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="12" t="s">
-        <v>14</v>
+      <c r="G27" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="H27" t="s">
         <v>14</v>
@@ -3811,22 +2506,22 @@
       <c r="I27" t="s">
         <v>14</v>
       </c>
-      <c r="J27" s="12" t="s">
+      <c r="J27" s="11" t="s">
         <v>14</v>
       </c>
       <c r="K27" t="s">
         <v>14</v>
       </c>
-      <c r="L27" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="M27" s="12" t="s">
+      <c r="L27" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M27" s="11" t="s">
         <v>14</v>
       </c>
       <c r="N27" t="s">
         <v>14</v>
       </c>
-      <c r="O27" s="13" t="s">
+      <c r="O27" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3845,8 +2540,8 @@
       <c r="F28" t="s">
         <v>14</v>
       </c>
-      <c r="G28" s="12" t="s">
-        <v>14</v>
+      <c r="G28" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="H28" t="s">
         <v>14</v>
@@ -3854,22 +2549,22 @@
       <c r="I28" t="s">
         <v>14</v>
       </c>
-      <c r="J28" s="12" t="s">
+      <c r="J28" s="11" t="s">
         <v>14</v>
       </c>
       <c r="K28" t="s">
         <v>14</v>
       </c>
-      <c r="L28" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="M28" s="12" t="s">
+      <c r="L28" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M28" s="11" t="s">
         <v>14</v>
       </c>
       <c r="N28" t="s">
         <v>14</v>
       </c>
-      <c r="O28" s="13" t="s">
+      <c r="O28" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3877,7 +2572,7 @@
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D29" t="s">
         <v>13</v>
@@ -3888,8 +2583,8 @@
       <c r="F29" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="12" t="s">
-        <v>14</v>
+      <c r="G29" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="H29" t="s">
         <v>14</v>
@@ -3897,22 +2592,22 @@
       <c r="I29" t="s">
         <v>14</v>
       </c>
-      <c r="J29" s="12" t="s">
+      <c r="J29" s="11" t="s">
         <v>14</v>
       </c>
       <c r="K29" t="s">
         <v>14</v>
       </c>
-      <c r="L29" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="M29" s="12" t="s">
+      <c r="L29" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M29" s="11" t="s">
         <v>14</v>
       </c>
       <c r="N29" t="s">
         <v>14</v>
       </c>
-      <c r="O29" s="13" t="s">
+      <c r="O29" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3920,7 +2615,7 @@
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D30" t="s">
         <v>10</v>
@@ -3931,8 +2626,8 @@
       <c r="F30" t="s">
         <v>14</v>
       </c>
-      <c r="G30" s="12" t="s">
-        <v>14</v>
+      <c r="G30" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="H30" t="s">
         <v>14</v>
@@ -3940,22 +2635,22 @@
       <c r="I30" t="s">
         <v>14</v>
       </c>
-      <c r="J30" s="12" t="s">
+      <c r="J30" s="11" t="s">
         <v>14</v>
       </c>
       <c r="K30" t="s">
         <v>14</v>
       </c>
-      <c r="L30" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="M30" s="12" t="s">
+      <c r="L30" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M30" s="11" t="s">
         <v>14</v>
       </c>
       <c r="N30" t="s">
         <v>14</v>
       </c>
-      <c r="O30" s="13" t="s">
+      <c r="O30" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3963,7 +2658,7 @@
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
         <v>11</v>
@@ -3974,8 +2669,8 @@
       <c r="F31" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="12" t="s">
-        <v>14</v>
+      <c r="G31" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="H31" t="s">
         <v>14</v>
@@ -3983,22 +2678,22 @@
       <c r="I31" t="s">
         <v>14</v>
       </c>
-      <c r="J31" s="12" t="s">
+      <c r="J31" s="11" t="s">
         <v>14</v>
       </c>
       <c r="K31" t="s">
         <v>14</v>
       </c>
-      <c r="L31" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="M31" s="12" t="s">
+      <c r="L31" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M31" s="11" t="s">
         <v>14</v>
       </c>
       <c r="N31" t="s">
         <v>14</v>
       </c>
-      <c r="O31" s="13" t="s">
+      <c r="O31" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4006,7 +2701,7 @@
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D32" t="s">
         <v>11</v>
@@ -4017,8 +2712,8 @@
       <c r="F32" t="s">
         <v>14</v>
       </c>
-      <c r="G32" s="12" t="s">
-        <v>14</v>
+      <c r="G32" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="H32" t="s">
         <v>14</v>
@@ -4026,22 +2721,22 @@
       <c r="I32" t="s">
         <v>14</v>
       </c>
-      <c r="J32" s="12" t="s">
+      <c r="J32" s="11" t="s">
         <v>14</v>
       </c>
       <c r="K32" t="s">
         <v>14</v>
       </c>
-      <c r="L32" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="M32" s="12" t="s">
+      <c r="L32" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M32" s="11" t="s">
         <v>14</v>
       </c>
       <c r="N32" t="s">
         <v>14</v>
       </c>
-      <c r="O32" s="13" t="s">
+      <c r="O32" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4049,7 +2744,7 @@
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D33" t="s">
         <v>11</v>
@@ -4060,8 +2755,8 @@
       <c r="F33" t="s">
         <v>14</v>
       </c>
-      <c r="G33" s="12" t="s">
-        <v>14</v>
+      <c r="G33" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="H33" t="s">
         <v>14</v>
@@ -4069,22 +2764,22 @@
       <c r="I33" t="s">
         <v>14</v>
       </c>
-      <c r="J33" s="12" t="s">
+      <c r="J33" s="11" t="s">
         <v>14</v>
       </c>
       <c r="K33" t="s">
         <v>14</v>
       </c>
-      <c r="L33" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="M33" s="12" t="s">
+      <c r="L33" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M33" s="11" t="s">
         <v>14</v>
       </c>
       <c r="N33" t="s">
         <v>14</v>
       </c>
-      <c r="O33" s="13" t="s">
+      <c r="O33" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4092,7 +2787,7 @@
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D34" t="s">
         <v>11</v>
@@ -4103,8 +2798,8 @@
       <c r="F34" t="s">
         <v>14</v>
       </c>
-      <c r="G34" s="12" t="s">
-        <v>14</v>
+      <c r="G34" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="H34" t="s">
         <v>14</v>
@@ -4112,22 +2807,22 @@
       <c r="I34" t="s">
         <v>14</v>
       </c>
-      <c r="J34" s="12" t="s">
+      <c r="J34" s="11" t="s">
         <v>14</v>
       </c>
       <c r="K34" t="s">
         <v>14</v>
       </c>
-      <c r="L34" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="M34" s="12" t="s">
+      <c r="L34" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M34" s="11" t="s">
         <v>14</v>
       </c>
       <c r="N34" t="s">
         <v>14</v>
       </c>
-      <c r="O34" s="13" t="s">
+      <c r="O34" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4135,7 +2830,7 @@
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D35" t="s">
         <v>11</v>
@@ -4146,8 +2841,8 @@
       <c r="F35" t="s">
         <v>14</v>
       </c>
-      <c r="G35" s="12" t="s">
-        <v>14</v>
+      <c r="G35" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="H35" t="s">
         <v>14</v>
@@ -4155,22 +2850,22 @@
       <c r="I35" t="s">
         <v>14</v>
       </c>
-      <c r="J35" s="12" t="s">
+      <c r="J35" s="11" t="s">
         <v>14</v>
       </c>
       <c r="K35" t="s">
         <v>14</v>
       </c>
-      <c r="L35" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="M35" s="12" t="s">
+      <c r="L35" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M35" s="11" t="s">
         <v>14</v>
       </c>
       <c r="N35" t="s">
         <v>14</v>
       </c>
-      <c r="O35" s="13" t="s">
+      <c r="O35" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4178,7 +2873,7 @@
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D36" t="s">
         <v>10</v>
@@ -4189,8 +2884,8 @@
       <c r="F36" t="s">
         <v>14</v>
       </c>
-      <c r="G36" s="12" t="s">
-        <v>14</v>
+      <c r="G36" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="H36" t="s">
         <v>14</v>
@@ -4198,22 +2893,22 @@
       <c r="I36" t="s">
         <v>14</v>
       </c>
-      <c r="J36" s="12" t="s">
+      <c r="J36" s="11" t="s">
         <v>14</v>
       </c>
       <c r="K36" t="s">
         <v>14</v>
       </c>
-      <c r="L36" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="M36" s="12" t="s">
+      <c r="L36" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M36" s="11" t="s">
         <v>14</v>
       </c>
       <c r="N36" t="s">
         <v>14</v>
       </c>
-      <c r="O36" s="13" t="s">
+      <c r="O36" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4221,7 +2916,7 @@
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D37" t="s">
         <v>10</v>
@@ -4232,8 +2927,8 @@
       <c r="F37" t="s">
         <v>14</v>
       </c>
-      <c r="G37" s="12" t="s">
-        <v>14</v>
+      <c r="G37" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="H37" t="s">
         <v>14</v>
@@ -4241,22 +2936,22 @@
       <c r="I37" t="s">
         <v>14</v>
       </c>
-      <c r="J37" s="12" t="s">
+      <c r="J37" s="11" t="s">
         <v>14</v>
       </c>
       <c r="K37" t="s">
         <v>14</v>
       </c>
-      <c r="L37" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="M37" s="12" t="s">
+      <c r="L37" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M37" s="11" t="s">
         <v>14</v>
       </c>
       <c r="N37" t="s">
         <v>14</v>
       </c>
-      <c r="O37" s="13" t="s">
+      <c r="O37" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4264,7 +2959,7 @@
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D38" t="s">
         <v>10</v>
@@ -4275,8 +2970,8 @@
       <c r="F38" t="s">
         <v>14</v>
       </c>
-      <c r="G38" s="12" t="s">
-        <v>14</v>
+      <c r="G38" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="H38" t="s">
         <v>14</v>
@@ -4284,22 +2979,22 @@
       <c r="I38" t="s">
         <v>14</v>
       </c>
-      <c r="J38" s="12" t="s">
+      <c r="J38" s="11" t="s">
         <v>14</v>
       </c>
       <c r="K38" t="s">
         <v>14</v>
       </c>
-      <c r="L38" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="M38" s="12" t="s">
+      <c r="L38" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M38" s="11" t="s">
         <v>14</v>
       </c>
       <c r="N38" t="s">
         <v>14</v>
       </c>
-      <c r="O38" s="13" t="s">
+      <c r="O38" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4307,7 +3002,7 @@
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D39" t="s">
         <v>11</v>
@@ -4318,8 +3013,8 @@
       <c r="F39" t="s">
         <v>14</v>
       </c>
-      <c r="G39" s="12" t="s">
-        <v>14</v>
+      <c r="G39" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="H39" t="s">
         <v>14</v>
@@ -4327,22 +3022,22 @@
       <c r="I39" t="s">
         <v>14</v>
       </c>
-      <c r="J39" s="12" t="s">
+      <c r="J39" s="11" t="s">
         <v>14</v>
       </c>
       <c r="K39" t="s">
         <v>14</v>
       </c>
-      <c r="L39" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="M39" s="12" t="s">
+      <c r="L39" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M39" s="11" t="s">
         <v>14</v>
       </c>
       <c r="N39" t="s">
         <v>14</v>
       </c>
-      <c r="O39" s="13" t="s">
+      <c r="O39" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4350,7 +3045,7 @@
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D40" t="s">
         <v>11</v>
@@ -4361,8 +3056,8 @@
       <c r="F40" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="12" t="s">
-        <v>14</v>
+      <c r="G40" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="H40" t="s">
         <v>14</v>
@@ -4370,22 +3065,22 @@
       <c r="I40" t="s">
         <v>14</v>
       </c>
-      <c r="J40" s="12" t="s">
+      <c r="J40" s="11" t="s">
         <v>14</v>
       </c>
       <c r="K40" t="s">
         <v>14</v>
       </c>
-      <c r="L40" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="M40" s="12" t="s">
+      <c r="L40" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M40" s="11" t="s">
         <v>14</v>
       </c>
       <c r="N40" t="s">
         <v>14</v>
       </c>
-      <c r="O40" s="13" t="s">
+      <c r="O40" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4393,7 +3088,7 @@
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D41" t="s">
         <v>12</v>
@@ -4404,8 +3099,8 @@
       <c r="F41" t="s">
         <v>14</v>
       </c>
-      <c r="G41" s="12" t="s">
-        <v>14</v>
+      <c r="G41" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="H41" t="s">
         <v>14</v>
@@ -4413,22 +3108,22 @@
       <c r="I41" t="s">
         <v>14</v>
       </c>
-      <c r="J41" s="12" t="s">
+      <c r="J41" s="11" t="s">
         <v>14</v>
       </c>
       <c r="K41" t="s">
         <v>14</v>
       </c>
-      <c r="L41" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="M41" s="12" t="s">
+      <c r="L41" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M41" s="11" t="s">
         <v>14</v>
       </c>
       <c r="N41" t="s">
         <v>14</v>
       </c>
-      <c r="O41" s="13" t="s">
+      <c r="O41" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4436,7 +3131,7 @@
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D42" t="s">
         <v>13</v>
@@ -4447,8 +3142,8 @@
       <c r="F42" t="s">
         <v>14</v>
       </c>
-      <c r="G42" s="12" t="s">
-        <v>14</v>
+      <c r="G42" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="H42" t="s">
         <v>14</v>
@@ -4456,22 +3151,22 @@
       <c r="I42" t="s">
         <v>14</v>
       </c>
-      <c r="J42" s="12" t="s">
+      <c r="J42" s="11" t="s">
         <v>14</v>
       </c>
       <c r="K42" t="s">
         <v>14</v>
       </c>
-      <c r="L42" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="M42" s="12" t="s">
+      <c r="L42" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M42" s="11" t="s">
         <v>14</v>
       </c>
       <c r="N42" t="s">
         <v>14</v>
       </c>
-      <c r="O42" s="13" t="s">
+      <c r="O42" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4479,7 +3174,7 @@
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D43" t="s">
         <v>13</v>
@@ -4490,8 +3185,8 @@
       <c r="F43" t="s">
         <v>14</v>
       </c>
-      <c r="G43" s="12" t="s">
-        <v>14</v>
+      <c r="G43" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="H43" t="s">
         <v>14</v>
@@ -4499,27 +3194,28 @@
       <c r="I43" t="s">
         <v>14</v>
       </c>
-      <c r="J43" s="12" t="s">
+      <c r="J43" s="11" t="s">
         <v>14</v>
       </c>
       <c r="K43" t="s">
         <v>14</v>
       </c>
-      <c r="L43" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="M43" s="12" t="s">
+      <c r="L43" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M43" s="11" t="s">
         <v>14</v>
       </c>
       <c r="N43" t="s">
         <v>14</v>
       </c>
-      <c r="O43" s="13" t="s">
+      <c r="O43" s="12" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B26:C26"/>
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="A5:C5"/>
@@ -4528,313 +3224,312 @@
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="M1:O1"/>
-    <mergeCell ref="B26:C26"/>
   </mergeCells>
   <conditionalFormatting sqref="D27:E28 G7:H25 G27:H41 J27:K41 J7:K25 M7:N25 M27:N41 D7:E25 E29:E41 D29:D43">
-    <cfRule type="cellIs" dxfId="91" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="138" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="139" operator="equal">
       <formula>"AB"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="140" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="141" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="142" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="143" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42 G42:H42 J42:K42 M42:N42">
-    <cfRule type="cellIs" dxfId="85" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="118" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="119" operator="equal">
       <formula>"AB"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="120" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="121" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="122" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="123" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43 G43:H43 J43:K43 M43:N43">
-    <cfRule type="cellIs" dxfId="79" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="112" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="113" operator="equal">
       <formula>"AB"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="114" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="115" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="116" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="117" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4:R4">
-    <cfRule type="cellIs" dxfId="73" priority="110" operator="notEqual">
+    <cfRule type="cellIs" dxfId="79" priority="110" operator="notEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="111" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27:F41 F7:F25">
-    <cfRule type="cellIs" dxfId="71" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="86" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="87" operator="equal">
       <formula>"AB"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="88" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="89" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="90" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="91" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="cellIs" dxfId="65" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="80" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="81" operator="equal">
       <formula>"AB"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="82" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="83" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="84" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="85" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43">
-    <cfRule type="cellIs" dxfId="59" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="74" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="75" operator="equal">
       <formula>"AB"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="76" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="77" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="78" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="79" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27:I41 I7:I25">
-    <cfRule type="cellIs" dxfId="53" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="68" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="69" operator="equal">
       <formula>"AB"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="70" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="71" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="72" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="73" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42">
-    <cfRule type="cellIs" dxfId="47" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="62" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="63" operator="equal">
       <formula>"AB"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="64" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="65" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="66" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="67" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43">
-    <cfRule type="cellIs" dxfId="41" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="56" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="57" operator="equal">
       <formula>"AB"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="58" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="59" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="60" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="61" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27:L41 L7:L25">
-    <cfRule type="cellIs" dxfId="35" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="50" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="51" operator="equal">
       <formula>"AB"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="52" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="53" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="54" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="55" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L42">
-    <cfRule type="cellIs" dxfId="29" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="44" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="45" operator="equal">
       <formula>"AB"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="46" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="47" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="48" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="49" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L43">
-    <cfRule type="cellIs" dxfId="23" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="38" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="39" operator="equal">
       <formula>"AB"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="40" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="41" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="42" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="43" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O7:O25 O27:O41">
-    <cfRule type="cellIs" dxfId="17" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="32" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="33" operator="equal">
       <formula>"AB"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="34" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="35" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="36" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="37" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O42">
-    <cfRule type="cellIs" dxfId="11" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="26" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="27" operator="equal">
       <formula>"AB"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="28" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="29" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="30" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="31" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O43">
-    <cfRule type="cellIs" dxfId="5" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="20" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="21" operator="equal">
       <formula>"AB"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="22" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="23" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="24" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="25" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4892,7 +3587,7 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="48.88671875" bestFit="1" customWidth="1"/>
@@ -4908,13 +3603,13 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -4922,13 +3617,13 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -4936,13 +3631,13 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -4950,13 +3645,13 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -4964,13 +3659,13 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Organisation/Auto-Eval-ASI2-r1.xlsx
+++ b/Organisation/Auto-Eval-ASI2-r1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE016040-9BF7-4FD6-AACE-B319DAA2759A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7ADB3AE-A7DB-473A-A773-BA740BB64828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Auto-Evaluation" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Author</author>
+    <author>Auteur</author>
   </authors>
   <commentList>
     <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
@@ -97,7 +97,7 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Author</author>
+    <author>Auteur</author>
   </authors>
   <commentList>
     <comment ref="A6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
@@ -166,12 +166,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>Etudiant C</t>
-  </si>
-  <si>
-    <t>Etudiant D</t>
-  </si>
-  <si>
     <t>Architecture monolithic</t>
   </si>
   <si>
@@ -329,6 +323,12 @@
   </si>
   <si>
     <t>LABROSSE Timothée</t>
+  </si>
+  <si>
+    <t>ROJKOVSKA Julia</t>
+  </si>
+  <si>
+    <t>BOYER Charles</t>
   </si>
 </sst>
 </file>
@@ -434,6 +434,9 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -444,9 +447,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -479,48 +479,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
@@ -1095,6 +1053,48 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1125,7 +1125,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1448,43 +1448,43 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="27.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="D1" s="15" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D1" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="16"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" s="16"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="16"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="15"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" s="15"/>
+      <c r="N1" s="16"/>
       <c r="O1" s="18"/>
-      <c r="P1" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P1" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>1</v>
@@ -1501,7 +1501,7 @@
         <v>2</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>1</v>
@@ -1510,7 +1510,7 @@
         <v>2</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>1</v>
@@ -1519,7 +1519,7 @@
         <v>2</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>1</v>
@@ -1528,10 +1528,10 @@
         <v>2</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -1548,13 +1548,13 @@
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B4" s="15" t="s">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="15"/>
+      <c r="C4" s="16"/>
       <c r="D4" s="5">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E4" s="5">
         <v>0</v>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="5">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H4" s="5">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="5">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K4" s="5">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="N4" s="5">
         <v>0</v>
@@ -1602,12 +1602,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -1624,12 +1624,12 @@
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="17"/>
+      <c r="C6" s="13"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -1646,11 +1646,11 @@
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
@@ -1671,7 +1671,7 @@
         <v>14</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K7" t="s">
         <v>14</v>
@@ -1689,7 +1689,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4" t="s">
@@ -1714,7 +1714,7 @@
         <v>14</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K8" t="s">
         <v>14</v>
@@ -1732,11 +1732,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -1757,7 +1757,7 @@
         <v>14</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K9" t="s">
         <v>14</v>
@@ -1775,11 +1775,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
@@ -1800,7 +1800,7 @@
         <v>14</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K10" t="s">
         <v>14</v>
@@ -1818,11 +1818,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
@@ -1843,7 +1843,7 @@
         <v>14</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K11" t="s">
         <v>14</v>
@@ -1861,11 +1861,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
@@ -1886,7 +1886,7 @@
         <v>14</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K12" t="s">
         <v>14</v>
@@ -1904,11 +1904,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
@@ -1929,7 +1929,7 @@
         <v>14</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K13" t="s">
         <v>14</v>
@@ -1947,11 +1947,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="36.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
         <v>13</v>
@@ -1972,7 +1972,7 @@
         <v>14</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K14" t="s">
         <v>14</v>
@@ -1990,11 +1990,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
         <v>10</v>
@@ -2015,7 +2015,7 @@
         <v>14</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K15" t="s">
         <v>14</v>
@@ -2033,11 +2033,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
         <v>11</v>
@@ -2058,7 +2058,7 @@
         <v>14</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K16" t="s">
         <v>14</v>
@@ -2076,11 +2076,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
         <v>10</v>
@@ -2101,7 +2101,7 @@
         <v>14</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K17" t="s">
         <v>14</v>
@@ -2119,11 +2119,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
         <v>10</v>
@@ -2144,7 +2144,7 @@
         <v>14</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K18" t="s">
         <v>14</v>
@@ -2162,11 +2162,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
@@ -2187,7 +2187,7 @@
         <v>14</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K19" t="s">
         <v>14</v>
@@ -2205,11 +2205,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D20" t="s">
         <v>11</v>
@@ -2230,7 +2230,7 @@
         <v>14</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K20" t="s">
         <v>14</v>
@@ -2248,11 +2248,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D21" t="s">
         <v>10</v>
@@ -2273,7 +2273,7 @@
         <v>14</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K21" t="s">
         <v>14</v>
@@ -2291,11 +2291,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D22" t="s">
         <v>13</v>
@@ -2316,7 +2316,7 @@
         <v>14</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K22" t="s">
         <v>14</v>
@@ -2334,11 +2334,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D23" t="s">
         <v>10</v>
@@ -2359,7 +2359,7 @@
         <v>14</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K23" t="s">
         <v>14</v>
@@ -2377,11 +2377,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D24" t="s">
         <v>10</v>
@@ -2402,7 +2402,7 @@
         <v>14</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K24" t="s">
         <v>14</v>
@@ -2420,11 +2420,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D25" t="s">
         <v>10</v>
@@ -2445,7 +2445,7 @@
         <v>14</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K25" t="s">
         <v>14</v>
@@ -2463,12 +2463,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="17"/>
+      <c r="C26" s="13"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -2482,7 +2482,7 @@
       <c r="N26" s="3"/>
       <c r="O26" s="9"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="4" t="s">
@@ -2507,7 +2507,7 @@
         <v>14</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K27" t="s">
         <v>14</v>
@@ -2525,7 +2525,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="4" t="s">
@@ -2550,7 +2550,7 @@
         <v>14</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K28" t="s">
         <v>14</v>
@@ -2568,11 +2568,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D29" t="s">
         <v>13</v>
@@ -2593,7 +2593,7 @@
         <v>14</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K29" t="s">
         <v>14</v>
@@ -2611,11 +2611,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D30" t="s">
         <v>10</v>
@@ -2636,7 +2636,7 @@
         <v>14</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K30" t="s">
         <v>14</v>
@@ -2654,11 +2654,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D31" t="s">
         <v>11</v>
@@ -2679,7 +2679,7 @@
         <v>14</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K31" t="s">
         <v>14</v>
@@ -2697,11 +2697,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D32" t="s">
         <v>11</v>
@@ -2722,7 +2722,7 @@
         <v>14</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K32" t="s">
         <v>14</v>
@@ -2740,11 +2740,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D33" t="s">
         <v>11</v>
@@ -2765,7 +2765,7 @@
         <v>14</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K33" t="s">
         <v>14</v>
@@ -2783,11 +2783,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D34" t="s">
         <v>11</v>
@@ -2808,7 +2808,7 @@
         <v>14</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K34" t="s">
         <v>14</v>
@@ -2826,11 +2826,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D35" t="s">
         <v>11</v>
@@ -2851,7 +2851,7 @@
         <v>14</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K35" t="s">
         <v>14</v>
@@ -2869,11 +2869,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D36" t="s">
         <v>10</v>
@@ -2894,7 +2894,7 @@
         <v>14</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K36" t="s">
         <v>14</v>
@@ -2912,11 +2912,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D37" t="s">
         <v>10</v>
@@ -2937,7 +2937,7 @@
         <v>14</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K37" t="s">
         <v>14</v>
@@ -2955,11 +2955,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D38" t="s">
         <v>10</v>
@@ -2980,7 +2980,7 @@
         <v>14</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K38" t="s">
         <v>14</v>
@@ -2998,11 +2998,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D39" t="s">
         <v>11</v>
@@ -3023,7 +3023,7 @@
         <v>14</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K39" t="s">
         <v>14</v>
@@ -3041,11 +3041,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D40" t="s">
         <v>11</v>
@@ -3066,7 +3066,7 @@
         <v>14</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K40" t="s">
         <v>14</v>
@@ -3084,11 +3084,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D41" t="s">
         <v>12</v>
@@ -3109,7 +3109,7 @@
         <v>14</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K41" t="s">
         <v>14</v>
@@ -3127,11 +3127,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D42" t="s">
         <v>13</v>
@@ -3152,7 +3152,7 @@
         <v>14</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K42" t="s">
         <v>14</v>
@@ -3170,11 +3170,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D43" t="s">
         <v>13</v>
@@ -3195,7 +3195,7 @@
         <v>14</v>
       </c>
       <c r="J43" s="11" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K43" t="s">
         <v>14</v>
@@ -3226,310 +3226,310 @@
     <mergeCell ref="M1:O1"/>
   </mergeCells>
   <conditionalFormatting sqref="D27:E28 G7:H25 G27:H41 J27:K41 J7:K25 M7:N25 M27:N41 D7:E25 E29:E41 D29:D43">
-    <cfRule type="cellIs" dxfId="5" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="138" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="139" operator="equal">
       <formula>"AB"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="140" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="141" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="142" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="143" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42 G42:H42 J42:K42 M42:N42">
-    <cfRule type="cellIs" dxfId="91" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="118" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="119" operator="equal">
       <formula>"AB"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="120" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="121" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="122" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="123" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43 G43:H43 J43:K43 M43:N43">
-    <cfRule type="cellIs" dxfId="85" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="112" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="113" operator="equal">
       <formula>"AB"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="114" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="115" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="116" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="117" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4:R4">
-    <cfRule type="cellIs" dxfId="79" priority="110" operator="notEqual">
+    <cfRule type="cellIs" dxfId="73" priority="110" operator="notEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="111" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27:F41 F7:F25">
-    <cfRule type="cellIs" dxfId="77" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="86" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="87" operator="equal">
       <formula>"AB"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="88" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="89" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="90" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="91" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="cellIs" dxfId="71" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="80" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="81" operator="equal">
       <formula>"AB"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="82" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="83" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="84" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="85" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43">
-    <cfRule type="cellIs" dxfId="65" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="74" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="75" operator="equal">
       <formula>"AB"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="76" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="77" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="78" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="79" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27:I41 I7:I25">
-    <cfRule type="cellIs" dxfId="59" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="68" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="69" operator="equal">
       <formula>"AB"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="70" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="71" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="72" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="73" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42">
-    <cfRule type="cellIs" dxfId="53" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="62" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="63" operator="equal">
       <formula>"AB"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="64" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="65" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="66" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="67" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43">
-    <cfRule type="cellIs" dxfId="47" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="56" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="57" operator="equal">
       <formula>"AB"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="58" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="59" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="60" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="61" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27:L41 L7:L25">
-    <cfRule type="cellIs" dxfId="41" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="50" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="51" operator="equal">
       <formula>"AB"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="52" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="53" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="54" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="55" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L42">
-    <cfRule type="cellIs" dxfId="35" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="44" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="45" operator="equal">
       <formula>"AB"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="46" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="47" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="48" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="49" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L43">
-    <cfRule type="cellIs" dxfId="29" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="38" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="39" operator="equal">
       <formula>"AB"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="40" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="41" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="42" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="43" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O7:O25 O27:O41">
-    <cfRule type="cellIs" dxfId="23" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="32" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="33" operator="equal">
       <formula>"AB"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="34" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="35" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="36" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="37" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O42">
-    <cfRule type="cellIs" dxfId="17" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="26" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="27" operator="equal">
       <formula>"AB"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="28" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="29" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="30" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="31" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O43">
-    <cfRule type="cellIs" dxfId="11" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="20" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="21" operator="equal">
       <formula>"AB"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="22" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="23" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="24" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="25" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3587,85 +3587,85 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Organisation/Auto-Eval-ASI2-r1.xlsx
+++ b/Organisation/Auto-Eval-ASI2-r1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7ADB3AE-A7DB-473A-A773-BA740BB64828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F861C52F-9433-472B-A3B3-091A879E5ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Auto-Evaluation" sheetId="1" r:id="rId1"/>
@@ -1448,8 +1448,8 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M44" sqref="M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1680,7 +1680,7 @@
         <v>14</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="N7" t="s">
         <v>14</v>
@@ -1723,7 +1723,7 @@
         <v>14</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="N8" t="s">
         <v>14</v>
@@ -1766,7 +1766,7 @@
         <v>14</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N9" t="s">
         <v>14</v>
@@ -1809,7 +1809,7 @@
         <v>14</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="N10" t="s">
         <v>14</v>
@@ -1852,7 +1852,7 @@
         <v>14</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N11" t="s">
         <v>14</v>
@@ -1895,7 +1895,7 @@
         <v>14</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N12" t="s">
         <v>14</v>
@@ -1938,7 +1938,7 @@
         <v>14</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N13" t="s">
         <v>14</v>
@@ -1981,7 +1981,7 @@
         <v>14</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N14" t="s">
         <v>14</v>
@@ -2024,7 +2024,7 @@
         <v>14</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N15" t="s">
         <v>14</v>
@@ -2067,7 +2067,7 @@
         <v>14</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N16" t="s">
         <v>14</v>
@@ -2110,7 +2110,7 @@
         <v>14</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="N17" t="s">
         <v>14</v>
@@ -2153,7 +2153,7 @@
         <v>14</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N18" t="s">
         <v>14</v>
@@ -2196,7 +2196,7 @@
         <v>14</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N19" t="s">
         <v>14</v>
@@ -2239,7 +2239,7 @@
         <v>14</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="N20" t="s">
         <v>14</v>
@@ -2282,7 +2282,7 @@
         <v>14</v>
       </c>
       <c r="M21" s="11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N21" t="s">
         <v>14</v>
@@ -2325,7 +2325,7 @@
         <v>14</v>
       </c>
       <c r="M22" s="11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N22" t="s">
         <v>14</v>
@@ -2368,7 +2368,7 @@
         <v>14</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N23" t="s">
         <v>14</v>
@@ -2411,7 +2411,7 @@
         <v>14</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N24" t="s">
         <v>14</v>
@@ -2454,7 +2454,7 @@
         <v>14</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N25" t="s">
         <v>14</v>
@@ -2516,7 +2516,7 @@
         <v>14</v>
       </c>
       <c r="M27" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N27" t="s">
         <v>14</v>
@@ -2559,7 +2559,7 @@
         <v>14</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N28" t="s">
         <v>14</v>
@@ -2602,7 +2602,7 @@
         <v>14</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="N29" t="s">
         <v>14</v>
@@ -2645,7 +2645,7 @@
         <v>14</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N30" t="s">
         <v>14</v>
@@ -2688,7 +2688,7 @@
         <v>14</v>
       </c>
       <c r="M31" s="11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="N31" t="s">
         <v>14</v>
@@ -2731,7 +2731,7 @@
         <v>14</v>
       </c>
       <c r="M32" s="11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="N32" t="s">
         <v>14</v>
@@ -2774,7 +2774,7 @@
         <v>14</v>
       </c>
       <c r="M33" s="11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="N33" t="s">
         <v>14</v>
@@ -2817,7 +2817,7 @@
         <v>14</v>
       </c>
       <c r="M34" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N34" t="s">
         <v>14</v>
@@ -2860,7 +2860,7 @@
         <v>14</v>
       </c>
       <c r="M35" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N35" t="s">
         <v>14</v>
@@ -2903,7 +2903,7 @@
         <v>14</v>
       </c>
       <c r="M36" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N36" t="s">
         <v>14</v>
@@ -2946,7 +2946,7 @@
         <v>14</v>
       </c>
       <c r="M37" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N37" t="s">
         <v>14</v>
@@ -2989,7 +2989,7 @@
         <v>14</v>
       </c>
       <c r="M38" s="11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N38" t="s">
         <v>14</v>
@@ -3032,7 +3032,7 @@
         <v>14</v>
       </c>
       <c r="M39" s="11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="N39" t="s">
         <v>14</v>
@@ -3075,7 +3075,7 @@
         <v>14</v>
       </c>
       <c r="M40" s="11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="N40" t="s">
         <v>14</v>
@@ -3118,7 +3118,7 @@
         <v>14</v>
       </c>
       <c r="M41" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N41" t="s">
         <v>14</v>
@@ -3161,7 +3161,7 @@
         <v>14</v>
       </c>
       <c r="M42" s="11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N42" t="s">
         <v>14</v>
@@ -3204,7 +3204,7 @@
         <v>14</v>
       </c>
       <c r="M43" s="11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N43" t="s">
         <v>14</v>

--- a/Organisation/Auto-Eval-ASI2-r1.xlsx
+++ b/Organisation/Auto-Eval-ASI2-r1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F861C52F-9433-472B-A3B3-091A879E5ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE50165-6C09-4CBF-BB26-A672513647E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Auto-Evaluation" sheetId="1" r:id="rId1"/>
@@ -1448,16 +1448,16 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M44" sqref="M44"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="27.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D1" s="16" t="s">
         <v>67</v>
       </c>
@@ -1484,7 +1484,7 @@
       <c r="Q1" s="15"/>
       <c r="R1" s="15"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -1548,7 +1548,7 @@
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B4" s="16" t="s">
         <v>8</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>0</v>
       </c>
@@ -1624,7 +1624,7 @@
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="13" t="s">
         <v>3</v>
@@ -1646,7 +1646,7 @@
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4" t="s">
@@ -1656,10 +1656,10 @@
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>9</v>
@@ -1689,7 +1689,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4" t="s">
@@ -1699,10 +1699,10 @@
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>9</v>
@@ -1732,7 +1732,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="4" t="s">
@@ -1742,10 +1742,10 @@
         <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>11</v>
@@ -1775,7 +1775,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="4" t="s">
@@ -1785,10 +1785,10 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>9</v>
@@ -1818,7 +1818,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4" t="s">
@@ -1828,10 +1828,10 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>9</v>
@@ -1861,7 +1861,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4" t="s">
@@ -1871,10 +1871,10 @@
         <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>9</v>
@@ -1904,7 +1904,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4" t="s">
@@ -1914,10 +1914,10 @@
         <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>9</v>
@@ -1947,7 +1947,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4" t="s">
@@ -1957,10 +1957,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>9</v>
@@ -1990,7 +1990,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4" t="s">
@@ -2000,10 +2000,10 @@
         <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G15" s="11" t="s">
         <v>13</v>
@@ -2033,7 +2033,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4" t="s">
@@ -2043,10 +2043,10 @@
         <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G16" s="11" t="s">
         <v>11</v>
@@ -2076,7 +2076,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4" t="s">
@@ -2086,10 +2086,10 @@
         <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G17" s="11" t="s">
         <v>11</v>
@@ -2119,7 +2119,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4" t="s">
@@ -2129,10 +2129,10 @@
         <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G18" s="11" t="s">
         <v>10</v>
@@ -2162,7 +2162,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4" t="s">
@@ -2172,10 +2172,10 @@
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G19" s="11" t="s">
         <v>12</v>
@@ -2205,7 +2205,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4" t="s">
@@ -2215,10 +2215,10 @@
         <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G20" s="11" t="s">
         <v>10</v>
@@ -2248,7 +2248,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4" t="s">
@@ -2258,10 +2258,10 @@
         <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G21" s="11" t="s">
         <v>13</v>
@@ -2291,7 +2291,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4" t="s">
@@ -2301,10 +2301,10 @@
         <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G22" s="11" t="s">
         <v>10</v>
@@ -2334,7 +2334,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4" t="s">
@@ -2344,10 +2344,10 @@
         <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G23" s="11" t="s">
         <v>10</v>
@@ -2377,7 +2377,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4" t="s">
@@ -2387,10 +2387,10 @@
         <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G24" s="11" t="s">
         <v>10</v>
@@ -2420,7 +2420,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="4" t="s">
@@ -2430,10 +2430,10 @@
         <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>11</v>
@@ -2463,7 +2463,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="13" t="s">
         <v>4</v>
@@ -2482,7 +2482,7 @@
       <c r="N26" s="3"/>
       <c r="O26" s="9"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="4" t="s">
@@ -2492,10 +2492,10 @@
         <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>11</v>
@@ -2525,7 +2525,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="4" t="s">
@@ -2535,10 +2535,10 @@
         <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G28" s="11" t="s">
         <v>10</v>
@@ -2568,7 +2568,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="4" t="s">
@@ -2578,10 +2578,10 @@
         <v>13</v>
       </c>
       <c r="E29" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G29" s="11" t="s">
         <v>9</v>
@@ -2611,7 +2611,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="4" t="s">
@@ -2621,10 +2621,10 @@
         <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G30" s="11" t="s">
         <v>9</v>
@@ -2654,7 +2654,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="4" t="s">
@@ -2664,10 +2664,10 @@
         <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G31" s="11" t="s">
         <v>11</v>
@@ -2697,7 +2697,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="4" t="s">
@@ -2707,10 +2707,10 @@
         <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G32" s="11" t="s">
         <v>9</v>
@@ -2740,7 +2740,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="4" t="s">
@@ -2750,10 +2750,10 @@
         <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>9</v>
@@ -2783,7 +2783,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="4" t="s">
@@ -2793,10 +2793,10 @@
         <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G34" s="11" t="s">
         <v>9</v>
@@ -2826,7 +2826,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="4" t="s">
@@ -2836,10 +2836,10 @@
         <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G35" s="11" t="s">
         <v>13</v>
@@ -2869,7 +2869,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="4" t="s">
@@ -2879,10 +2879,10 @@
         <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G36" s="11" t="s">
         <v>13</v>
@@ -2912,7 +2912,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="4" t="s">
@@ -2922,10 +2922,10 @@
         <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G37" s="11" t="s">
         <v>10</v>
@@ -2955,7 +2955,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="4" t="s">
@@ -2965,10 +2965,10 @@
         <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G38" s="11" t="s">
         <v>10</v>
@@ -2998,7 +2998,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="4" t="s">
@@ -3008,10 +3008,10 @@
         <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G39" s="11" t="s">
         <v>11</v>
@@ -3041,7 +3041,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="4" t="s">
@@ -3051,10 +3051,10 @@
         <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G40" s="11" t="s">
         <v>9</v>
@@ -3084,7 +3084,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="4" t="s">
@@ -3094,10 +3094,10 @@
         <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G41" s="11" t="s">
         <v>11</v>
@@ -3127,7 +3127,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="4" t="s">
@@ -3137,10 +3137,10 @@
         <v>13</v>
       </c>
       <c r="E42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G42" s="11" t="s">
         <v>10</v>
@@ -3170,7 +3170,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="4" t="s">
@@ -3180,10 +3180,10 @@
         <v>13</v>
       </c>
       <c r="E43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G43" s="11" t="s">
         <v>10</v>
@@ -3225,7 +3225,7 @@
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="M1:O1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D27:E28 G7:H25 G27:H41 J27:K41 J7:K25 M7:N25 M27:N41 D7:E25 E29:E41 D29:D43">
+  <conditionalFormatting sqref="G27:H41 J27:K41 J7:K25 M7:N25 M27:N41 D7:H25 D27:F43">
     <cfRule type="cellIs" dxfId="91" priority="138" operator="equal">
       <formula>"A"</formula>
     </cfRule>
@@ -3245,7 +3245,7 @@
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E42 G42:H42 J42:K42 M42:N42">
+  <conditionalFormatting sqref="G42:H42 J42:K42 M42:N42">
     <cfRule type="cellIs" dxfId="85" priority="118" operator="equal">
       <formula>"A"</formula>
     </cfRule>
@@ -3265,7 +3265,7 @@
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E43 G43:H43 J43:K43 M43:N43">
+  <conditionalFormatting sqref="G43:H43 J43:K43 M43:N43">
     <cfRule type="cellIs" dxfId="79" priority="112" operator="equal">
       <formula>"A"</formula>
     </cfRule>
@@ -3291,66 +3291,6 @@
     </cfRule>
     <cfRule type="cellIs" dxfId="72" priority="111" operator="equal">
       <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F27:F41 F7:F25">
-    <cfRule type="cellIs" dxfId="71" priority="86" operator="equal">
-      <formula>"A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="87" operator="equal">
-      <formula>"AB"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="88" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="89" operator="equal">
-      <formula>"C"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="90" operator="equal">
-      <formula>"D"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="91" operator="equal">
-      <formula>"-"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F42">
-    <cfRule type="cellIs" dxfId="65" priority="80" operator="equal">
-      <formula>"A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="81" operator="equal">
-      <formula>"AB"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="82" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="83" operator="equal">
-      <formula>"C"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="84" operator="equal">
-      <formula>"D"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="85" operator="equal">
-      <formula>"-"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F43">
-    <cfRule type="cellIs" dxfId="59" priority="74" operator="equal">
-      <formula>"A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="75" operator="equal">
-      <formula>"AB"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="76" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="77" operator="equal">
-      <formula>"C"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="78" operator="equal">
-      <formula>"D"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="79" operator="equal">
-      <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27:I41 I7:I25">
@@ -3555,7 +3495,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
+  <conditionalFormatting sqref="D7:F7">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -3587,18 +3527,18 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -3612,7 +3552,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -3626,7 +3566,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -3640,7 +3580,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -3654,7 +3594,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>

--- a/Organisation/Auto-Eval-ASI2-r1.xlsx
+++ b/Organisation/Auto-Eval-ASI2-r1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE50165-6C09-4CBF-BB26-A672513647E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5939BDC8-D0DD-4AB1-82DE-1437A79990BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Auto-Evaluation" sheetId="1" r:id="rId1"/>
@@ -454,7 +454,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="92">
+  <dxfs count="86">
     <dxf>
       <fill>
         <patternFill>
@@ -479,6 +479,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
@@ -486,6 +493,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFFCC"/>
         </patternFill>
       </fill>
@@ -493,84 +528,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1448,16 +1406,16 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="27.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D1" s="16" t="s">
         <v>67</v>
       </c>
@@ -1484,7 +1442,7 @@
       <c r="Q1" s="15"/>
       <c r="R1" s="15"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1531,7 +1489,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -1548,7 +1506,7 @@
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
         <v>8</v>
       </c>
@@ -1602,7 +1560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>0</v>
       </c>
@@ -1624,7 +1582,7 @@
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="13" t="s">
         <v>3</v>
@@ -1646,7 +1604,7 @@
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4" t="s">
@@ -1674,10 +1632,10 @@
         <v>13</v>
       </c>
       <c r="K7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="L7" t="s">
+        <v>9</v>
       </c>
       <c r="M7" s="11" t="s">
         <v>9</v>
@@ -1689,7 +1647,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4" t="s">
@@ -1717,10 +1675,10 @@
         <v>10</v>
       </c>
       <c r="K8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L8" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="L8" t="s">
+        <v>13</v>
       </c>
       <c r="M8" s="11" t="s">
         <v>9</v>
@@ -1732,7 +1690,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="4" t="s">
@@ -1760,10 +1718,10 @@
         <v>11</v>
       </c>
       <c r="K9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L9" s="12" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="L9" t="s">
+        <v>11</v>
       </c>
       <c r="M9" s="11" t="s">
         <v>13</v>
@@ -1775,7 +1733,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="4" t="s">
@@ -1803,10 +1761,10 @@
         <v>10</v>
       </c>
       <c r="K10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="L10" t="s">
+        <v>13</v>
       </c>
       <c r="M10" s="11" t="s">
         <v>9</v>
@@ -1818,7 +1776,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4" t="s">
@@ -1846,10 +1804,10 @@
         <v>10</v>
       </c>
       <c r="K11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" s="12" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="L11" t="s">
+        <v>10</v>
       </c>
       <c r="M11" s="11" t="s">
         <v>10</v>
@@ -1861,7 +1819,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4" t="s">
@@ -1889,10 +1847,10 @@
         <v>10</v>
       </c>
       <c r="K12" t="s">
-        <v>14</v>
-      </c>
-      <c r="L12" s="12" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="L12" t="s">
+        <v>10</v>
       </c>
       <c r="M12" s="11" t="s">
         <v>10</v>
@@ -1904,7 +1862,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4" t="s">
@@ -1932,10 +1890,10 @@
         <v>13</v>
       </c>
       <c r="K13" t="s">
-        <v>14</v>
-      </c>
-      <c r="L13" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="L13" t="s">
+        <v>13</v>
       </c>
       <c r="M13" s="11" t="s">
         <v>13</v>
@@ -1947,7 +1905,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="36.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4" t="s">
@@ -1975,10 +1933,10 @@
         <v>13</v>
       </c>
       <c r="K14" t="s">
-        <v>14</v>
-      </c>
-      <c r="L14" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="L14" t="s">
+        <v>13</v>
       </c>
       <c r="M14" s="11" t="s">
         <v>13</v>
@@ -1990,7 +1948,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4" t="s">
@@ -2017,11 +1975,11 @@
       <c r="J15" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K15" t="s">
-        <v>14</v>
-      </c>
-      <c r="L15" s="12" t="s">
-        <v>14</v>
+      <c r="K15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="M15" s="11" t="s">
         <v>13</v>
@@ -2033,7 +1991,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4" t="s">
@@ -2060,11 +2018,11 @@
       <c r="J16" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K16" t="s">
-        <v>14</v>
-      </c>
-      <c r="L16" s="12" t="s">
-        <v>14</v>
+      <c r="K16" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="M16" s="11" t="s">
         <v>13</v>
@@ -2076,7 +2034,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4" t="s">
@@ -2103,11 +2061,11 @@
       <c r="J17" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="K17" t="s">
-        <v>14</v>
-      </c>
-      <c r="L17" s="12" t="s">
-        <v>14</v>
+      <c r="K17" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="M17" s="11" t="s">
         <v>11</v>
@@ -2119,7 +2077,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4" t="s">
@@ -2146,11 +2104,11 @@
       <c r="J18" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K18" t="s">
-        <v>14</v>
-      </c>
-      <c r="L18" s="12" t="s">
-        <v>14</v>
+      <c r="K18" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L18" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="M18" s="11" t="s">
         <v>13</v>
@@ -2162,7 +2120,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4" t="s">
@@ -2189,11 +2147,11 @@
       <c r="J19" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="K19" t="s">
-        <v>14</v>
-      </c>
-      <c r="L19" s="12" t="s">
-        <v>14</v>
+      <c r="K19" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="M19" s="11" t="s">
         <v>10</v>
@@ -2205,7 +2163,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4" t="s">
@@ -2232,11 +2190,11 @@
       <c r="J20" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K20" t="s">
-        <v>14</v>
-      </c>
-      <c r="L20" s="12" t="s">
-        <v>14</v>
+      <c r="K20" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="M20" s="11" t="s">
         <v>11</v>
@@ -2248,7 +2206,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4" t="s">
@@ -2275,11 +2233,11 @@
       <c r="J21" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K21" t="s">
-        <v>14</v>
-      </c>
-      <c r="L21" s="12" t="s">
-        <v>14</v>
+      <c r="K21" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="M21" s="11" t="s">
         <v>10</v>
@@ -2291,7 +2249,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4" t="s">
@@ -2318,11 +2276,11 @@
       <c r="J22" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K22" t="s">
-        <v>14</v>
-      </c>
-      <c r="L22" s="12" t="s">
-        <v>14</v>
+      <c r="K22" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="M22" s="11" t="s">
         <v>10</v>
@@ -2334,7 +2292,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4" t="s">
@@ -2361,11 +2319,11 @@
       <c r="J23" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K23" t="s">
-        <v>14</v>
-      </c>
-      <c r="L23" s="12" t="s">
-        <v>14</v>
+      <c r="K23" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L23" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="M23" s="11" t="s">
         <v>10</v>
@@ -2377,7 +2335,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4" t="s">
@@ -2404,11 +2362,11 @@
       <c r="J24" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K24" t="s">
-        <v>14</v>
-      </c>
-      <c r="L24" s="12" t="s">
-        <v>14</v>
+      <c r="K24" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L24" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="M24" s="11" t="s">
         <v>10</v>
@@ -2420,7 +2378,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="4" t="s">
@@ -2447,11 +2405,11 @@
       <c r="J25" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K25" t="s">
-        <v>14</v>
-      </c>
-      <c r="L25" s="12" t="s">
-        <v>14</v>
+      <c r="K25" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L25" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="M25" s="11" t="s">
         <v>10</v>
@@ -2463,7 +2421,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="13" t="s">
         <v>4</v>
@@ -2482,7 +2440,7 @@
       <c r="N26" s="3"/>
       <c r="O26" s="9"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="4" t="s">
@@ -2509,11 +2467,11 @@
       <c r="J27" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K27" t="s">
-        <v>14</v>
-      </c>
-      <c r="L27" s="12" t="s">
-        <v>14</v>
+      <c r="K27" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="M27" s="11" t="s">
         <v>13</v>
@@ -2525,7 +2483,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="4" t="s">
@@ -2552,11 +2510,11 @@
       <c r="J28" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K28" t="s">
-        <v>14</v>
-      </c>
-      <c r="L28" s="12" t="s">
-        <v>14</v>
+      <c r="K28" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L28" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="M28" s="11" t="s">
         <v>13</v>
@@ -2568,7 +2526,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="4" t="s">
@@ -2595,11 +2553,11 @@
       <c r="J29" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K29" t="s">
-        <v>14</v>
-      </c>
-      <c r="L29" s="12" t="s">
-        <v>14</v>
+      <c r="K29" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="L29" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="M29" s="11" t="s">
         <v>9</v>
@@ -2611,7 +2569,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="4" t="s">
@@ -2638,11 +2596,11 @@
       <c r="J30" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K30" t="s">
-        <v>14</v>
-      </c>
-      <c r="L30" s="12" t="s">
-        <v>14</v>
+      <c r="K30" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="M30" s="11" t="s">
         <v>13</v>
@@ -2654,7 +2612,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="4" t="s">
@@ -2681,11 +2639,11 @@
       <c r="J31" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K31" t="s">
-        <v>14</v>
-      </c>
-      <c r="L31" s="12" t="s">
-        <v>14</v>
+      <c r="K31" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L31" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="M31" s="11" t="s">
         <v>11</v>
@@ -2697,7 +2655,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="4" t="s">
@@ -2724,11 +2682,11 @@
       <c r="J32" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K32" t="s">
-        <v>14</v>
-      </c>
-      <c r="L32" s="12" t="s">
-        <v>14</v>
+      <c r="K32" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L32" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="M32" s="11" t="s">
         <v>11</v>
@@ -2740,7 +2698,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="4" t="s">
@@ -2767,11 +2725,11 @@
       <c r="J33" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K33" t="s">
-        <v>14</v>
-      </c>
-      <c r="L33" s="12" t="s">
-        <v>14</v>
+      <c r="K33" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L33" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="M33" s="11" t="s">
         <v>11</v>
@@ -2783,7 +2741,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="4" t="s">
@@ -2810,11 +2768,11 @@
       <c r="J34" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K34" t="s">
-        <v>14</v>
-      </c>
-      <c r="L34" s="12" t="s">
-        <v>14</v>
+      <c r="K34" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="L34" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="M34" s="11" t="s">
         <v>12</v>
@@ -2826,7 +2784,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="4" t="s">
@@ -2853,11 +2811,11 @@
       <c r="J35" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K35" t="s">
-        <v>14</v>
-      </c>
-      <c r="L35" s="12" t="s">
-        <v>14</v>
+      <c r="K35" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="L35" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="M35" s="11" t="s">
         <v>12</v>
@@ -2869,7 +2827,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="4" t="s">
@@ -2896,11 +2854,11 @@
       <c r="J36" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="K36" t="s">
-        <v>14</v>
-      </c>
-      <c r="L36" s="12" t="s">
-        <v>14</v>
+      <c r="K36" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L36" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="M36" s="11" t="s">
         <v>12</v>
@@ -2912,7 +2870,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="4" t="s">
@@ -2939,11 +2897,11 @@
       <c r="J37" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="K37" t="s">
-        <v>14</v>
-      </c>
-      <c r="L37" s="12" t="s">
-        <v>14</v>
+      <c r="K37" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L37" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="M37" s="11" t="s">
         <v>13</v>
@@ -2955,7 +2913,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="4" t="s">
@@ -2982,11 +2940,11 @@
       <c r="J38" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="K38" t="s">
-        <v>14</v>
-      </c>
-      <c r="L38" s="12" t="s">
-        <v>14</v>
+      <c r="K38" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L38" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="M38" s="11" t="s">
         <v>10</v>
@@ -2998,7 +2956,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="4" t="s">
@@ -3025,11 +2983,11 @@
       <c r="J39" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K39" t="s">
-        <v>14</v>
-      </c>
-      <c r="L39" s="12" t="s">
-        <v>14</v>
+      <c r="K39" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="L39" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="M39" s="11" t="s">
         <v>11</v>
@@ -3041,7 +2999,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="4" t="s">
@@ -3068,11 +3026,11 @@
       <c r="J40" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K40" t="s">
-        <v>14</v>
-      </c>
-      <c r="L40" s="12" t="s">
-        <v>14</v>
+      <c r="K40" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L40" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="M40" s="11" t="s">
         <v>11</v>
@@ -3084,7 +3042,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="4" t="s">
@@ -3111,11 +3069,11 @@
       <c r="J41" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K41" t="s">
-        <v>14</v>
-      </c>
-      <c r="L41" s="12" t="s">
-        <v>14</v>
+      <c r="K41" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="L41" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="M41" s="11" t="s">
         <v>13</v>
@@ -3127,7 +3085,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="4" t="s">
@@ -3154,11 +3112,11 @@
       <c r="J42" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K42" t="s">
-        <v>14</v>
-      </c>
-      <c r="L42" s="12" t="s">
-        <v>14</v>
+      <c r="K42" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="L42" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="M42" s="11" t="s">
         <v>10</v>
@@ -3170,7 +3128,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="4" t="s">
@@ -3197,11 +3155,11 @@
       <c r="J43" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K43" t="s">
-        <v>14</v>
-      </c>
-      <c r="L43" s="12" t="s">
-        <v>14</v>
+      <c r="K43" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="L43" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="M43" s="11" t="s">
         <v>10</v>
@@ -3225,75 +3183,115 @@
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="M1:O1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G27:H41 J27:K41 J7:K25 M7:N25 M27:N41 D7:H25 D27:F43">
-    <cfRule type="cellIs" dxfId="91" priority="138" operator="equal">
+  <conditionalFormatting sqref="G27:H41 M7:N25 M27:N41 D7:H25 D27:F43 J7:K25 J27:K41">
+    <cfRule type="cellIs" dxfId="85" priority="150" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="151" operator="equal">
       <formula>"AB"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="152" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="153" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="154" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="155" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G42:H42 J42:K42 M42:N42">
-    <cfRule type="cellIs" dxfId="85" priority="118" operator="equal">
+  <conditionalFormatting sqref="G42:H42 J42:N42">
+    <cfRule type="cellIs" dxfId="79" priority="130" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="131" operator="equal">
       <formula>"AB"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="132" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="133" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="134" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="135" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G43:H43 J43:K43 M43:N43">
-    <cfRule type="cellIs" dxfId="79" priority="112" operator="equal">
+  <conditionalFormatting sqref="G43:H43 J43:N43">
+    <cfRule type="cellIs" dxfId="73" priority="124" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="125" operator="equal">
       <formula>"AB"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="126" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="127" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="128" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="129" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4:R4">
-    <cfRule type="cellIs" dxfId="73" priority="110" operator="notEqual">
+    <cfRule type="cellIs" dxfId="67" priority="122" operator="notEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="123" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27:I41 I7:I25">
+    <cfRule type="cellIs" dxfId="65" priority="80" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="81" operator="equal">
+      <formula>"AB"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="82" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="83" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="84" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="85" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I42">
+    <cfRule type="cellIs" dxfId="59" priority="74" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="75" operator="equal">
+      <formula>"AB"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="76" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="77" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="78" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="79" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I43">
     <cfRule type="cellIs" dxfId="53" priority="68" operator="equal">
       <formula>"A"</formula>
     </cfRule>
@@ -3313,67 +3311,7 @@
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I42">
-    <cfRule type="cellIs" dxfId="47" priority="62" operator="equal">
-      <formula>"A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="63" operator="equal">
-      <formula>"AB"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="64" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="65" operator="equal">
-      <formula>"C"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="66" operator="equal">
-      <formula>"D"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="67" operator="equal">
-      <formula>"-"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I43">
-    <cfRule type="cellIs" dxfId="41" priority="56" operator="equal">
-      <formula>"A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="57" operator="equal">
-      <formula>"AB"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="58" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="59" operator="equal">
-      <formula>"C"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="60" operator="equal">
-      <formula>"D"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="61" operator="equal">
-      <formula>"-"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L27:L41 L7:L25">
-    <cfRule type="cellIs" dxfId="35" priority="50" operator="equal">
-      <formula>"A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="51" operator="equal">
-      <formula>"AB"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="52" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="53" operator="equal">
-      <formula>"C"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="54" operator="equal">
-      <formula>"D"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="55" operator="equal">
-      <formula>"-"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L42">
+  <conditionalFormatting sqref="O7:O25 O27:O41">
     <cfRule type="cellIs" dxfId="29" priority="44" operator="equal">
       <formula>"A"</formula>
     </cfRule>
@@ -3393,7 +3331,7 @@
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L43">
+  <conditionalFormatting sqref="O42">
     <cfRule type="cellIs" dxfId="23" priority="38" operator="equal">
       <formula>"A"</formula>
     </cfRule>
@@ -3413,7 +3351,7 @@
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O7:O25 O27:O41">
+  <conditionalFormatting sqref="O43">
     <cfRule type="cellIs" dxfId="17" priority="32" operator="equal">
       <formula>"A"</formula>
     </cfRule>
@@ -3433,48 +3371,8 @@
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O42">
-    <cfRule type="cellIs" dxfId="11" priority="26" operator="equal">
-      <formula>"A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="27" operator="equal">
-      <formula>"AB"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="28" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="29" operator="equal">
-      <formula>"C"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="30" operator="equal">
-      <formula>"D"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="31" operator="equal">
-      <formula>"-"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O43">
-    <cfRule type="cellIs" dxfId="5" priority="20" operator="equal">
-      <formula>"A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="21" operator="equal">
-      <formula>"AB"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="22" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="23" operator="equal">
-      <formula>"C"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="24" operator="equal">
-      <formula>"D"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="25" operator="equal">
-      <formula>"-"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D4:O4">
-    <cfRule type="colorScale" priority="238">
+    <cfRule type="colorScale" priority="250">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="0.5"/>
@@ -3484,7 +3382,7 @@
         <color rgb="FF00B050"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="239">
+    <cfRule type="colorScale" priority="251">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3496,7 +3394,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:F7">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3507,8 +3405,48 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="L27:L41">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+      <formula>"AB"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L7:L25">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"AB"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:O25 D27:O43" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D27:O43 D7:O25" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1 xml:space="preserve"> Note</formula1>
     </dataValidation>
   </dataValidations>
@@ -3527,18 +3465,18 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -3552,7 +3490,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -3566,7 +3504,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -3580,7 +3518,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -3594,7 +3532,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>

--- a/Organisation/Auto-Eval-ASI2-r1.xlsx
+++ b/Organisation/Auto-Eval-ASI2-r1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5939BDC8-D0DD-4AB1-82DE-1437A79990BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5426F0-629B-4B3C-9E5A-A4C50BEC5687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Auto-Evaluation" sheetId="1" r:id="rId1"/>
@@ -454,7 +454,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="86">
+  <dxfs count="68">
     <dxf>
       <fill>
         <patternFill>
@@ -529,132 +529,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1406,16 +1280,16 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P44" sqref="P44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="27.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D1" s="16" t="s">
         <v>67</v>
       </c>
@@ -1442,7 +1316,7 @@
       <c r="Q1" s="15"/>
       <c r="R1" s="15"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1489,7 +1363,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -1506,7 +1380,7 @@
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B4" s="16" t="s">
         <v>8</v>
       </c>
@@ -1515,7 +1389,7 @@
         <v>0.25</v>
       </c>
       <c r="E4" s="5">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F4" s="5">
         <v>0</v>
@@ -1542,7 +1416,7 @@
         <v>0.25</v>
       </c>
       <c r="N4" s="5">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O4" s="5">
         <v>0</v>
@@ -1553,14 +1427,14 @@
       </c>
       <c r="Q4" s="5">
         <f>E4+H4+K4+N4</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R4" s="5">
         <f>F4+I4+L4+O4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>0</v>
       </c>
@@ -1582,7 +1456,7 @@
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="13" t="s">
         <v>3</v>
@@ -1604,7 +1478,7 @@
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4" t="s">
@@ -1640,14 +1514,14 @@
       <c r="M7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N7" t="s">
-        <v>14</v>
-      </c>
-      <c r="O7" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4" t="s">
@@ -1683,14 +1557,14 @@
       <c r="M8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N8" t="s">
-        <v>14</v>
-      </c>
-      <c r="O8" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="4" t="s">
@@ -1726,14 +1600,14 @@
       <c r="M9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="N9" t="s">
-        <v>14</v>
-      </c>
-      <c r="O9" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="4" t="s">
@@ -1769,14 +1643,14 @@
       <c r="M10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N10" t="s">
-        <v>14</v>
-      </c>
-      <c r="O10" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="N10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="O10" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4" t="s">
@@ -1813,13 +1687,13 @@
         <v>10</v>
       </c>
       <c r="N11" t="s">
-        <v>14</v>
-      </c>
-      <c r="O11" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="24.75" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="O11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4" t="s">
@@ -1856,13 +1730,13 @@
         <v>10</v>
       </c>
       <c r="N12" t="s">
-        <v>14</v>
-      </c>
-      <c r="O12" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="24.75" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="O12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4" t="s">
@@ -1898,14 +1772,14 @@
       <c r="M13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="N13" t="s">
-        <v>14</v>
-      </c>
-      <c r="O13" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="N13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="O13" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4" t="s">
@@ -1941,14 +1815,14 @@
       <c r="M14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="N14" t="s">
-        <v>14</v>
-      </c>
-      <c r="O14" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="O14" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4" t="s">
@@ -1984,14 +1858,14 @@
       <c r="M15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="N15" t="s">
-        <v>14</v>
-      </c>
-      <c r="O15" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="N15" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="O15" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4" t="s">
@@ -2027,14 +1901,14 @@
       <c r="M16" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="N16" t="s">
-        <v>14</v>
-      </c>
-      <c r="O16" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="O16" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4" t="s">
@@ -2071,13 +1945,13 @@
         <v>11</v>
       </c>
       <c r="N17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="O17" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4" t="s">
@@ -2114,13 +1988,13 @@
         <v>13</v>
       </c>
       <c r="N18" t="s">
-        <v>14</v>
-      </c>
-      <c r="O18" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="O18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4" t="s">
@@ -2157,13 +2031,13 @@
         <v>10</v>
       </c>
       <c r="N19" t="s">
-        <v>14</v>
-      </c>
-      <c r="O19" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="O19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4" t="s">
@@ -2200,13 +2074,13 @@
         <v>11</v>
       </c>
       <c r="N20" t="s">
-        <v>14</v>
-      </c>
-      <c r="O20" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="O20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4" t="s">
@@ -2243,13 +2117,13 @@
         <v>10</v>
       </c>
       <c r="N21" t="s">
-        <v>14</v>
-      </c>
-      <c r="O21" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="O21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4" t="s">
@@ -2286,13 +2160,13 @@
         <v>10</v>
       </c>
       <c r="N22" t="s">
-        <v>14</v>
-      </c>
-      <c r="O22" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="O22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4" t="s">
@@ -2329,13 +2203,13 @@
         <v>10</v>
       </c>
       <c r="N23" t="s">
-        <v>14</v>
-      </c>
-      <c r="O23" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="O23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4" t="s">
@@ -2372,13 +2246,13 @@
         <v>10</v>
       </c>
       <c r="N24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O24" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="4" t="s">
@@ -2415,13 +2289,13 @@
         <v>10</v>
       </c>
       <c r="N25" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="O25" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="13" t="s">
         <v>4</v>
@@ -2440,7 +2314,7 @@
       <c r="N26" s="3"/>
       <c r="O26" s="9"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="4" t="s">
@@ -2477,13 +2351,13 @@
         <v>13</v>
       </c>
       <c r="N27" t="s">
-        <v>14</v>
-      </c>
-      <c r="O27" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="O27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="4" t="s">
@@ -2520,13 +2394,13 @@
         <v>13</v>
       </c>
       <c r="N28" t="s">
-        <v>14</v>
-      </c>
-      <c r="O28" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="O28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="4" t="s">
@@ -2563,13 +2437,13 @@
         <v>9</v>
       </c>
       <c r="N29" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O29" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="4" t="s">
@@ -2606,13 +2480,13 @@
         <v>13</v>
       </c>
       <c r="N30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O30" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="4" t="s">
@@ -2649,13 +2523,13 @@
         <v>11</v>
       </c>
       <c r="N31" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O31" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="4" t="s">
@@ -2692,13 +2566,13 @@
         <v>11</v>
       </c>
       <c r="N32" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O32" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="4" t="s">
@@ -2735,13 +2609,13 @@
         <v>11</v>
       </c>
       <c r="N33" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O33" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="4" t="s">
@@ -2778,13 +2652,13 @@
         <v>12</v>
       </c>
       <c r="N34" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O34" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="4" t="s">
@@ -2821,13 +2695,13 @@
         <v>12</v>
       </c>
       <c r="N35" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O35" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="4" t="s">
@@ -2864,13 +2738,13 @@
         <v>12</v>
       </c>
       <c r="N36" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O36" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="4" t="s">
@@ -2906,14 +2780,14 @@
       <c r="M37" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="N37" t="s">
-        <v>14</v>
-      </c>
-      <c r="O37" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="N37" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="O37" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="4" t="s">
@@ -2949,14 +2823,14 @@
       <c r="M38" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="N38" t="s">
-        <v>14</v>
-      </c>
-      <c r="O38" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="N38" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="O38" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="4" t="s">
@@ -2993,13 +2867,13 @@
         <v>11</v>
       </c>
       <c r="N39" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="O39" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="4" t="s">
@@ -3035,14 +2909,14 @@
       <c r="M40" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="N40" t="s">
-        <v>14</v>
-      </c>
-      <c r="O40" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="N40" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O40" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="4" t="s">
@@ -3078,14 +2952,14 @@
       <c r="M41" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="N41" t="s">
-        <v>14</v>
-      </c>
-      <c r="O41" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N41" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="O41" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="4" t="s">
@@ -3122,13 +2996,13 @@
         <v>10</v>
       </c>
       <c r="N42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O42" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="4" t="s">
@@ -3165,10 +3039,10 @@
         <v>10</v>
       </c>
       <c r="N43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O43" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -3183,135 +3057,135 @@
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="M1:O1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G27:H41 M7:N25 M27:N41 D7:H25 D27:F43 J7:K25 J27:K41">
-    <cfRule type="cellIs" dxfId="85" priority="150" operator="equal">
+  <conditionalFormatting sqref="G27:H41 D7:H25 D27:F43 J7:K25 J27:K41 M17:N25 M7:O16 O18:O23 O27:O28 M27:N36 M39:N39 M37:O38 M40:O41">
+    <cfRule type="cellIs" dxfId="67" priority="150" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="151" operator="equal">
       <formula>"AB"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="152" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="153" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="154" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="155" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42:H42 J42:N42">
-    <cfRule type="cellIs" dxfId="79" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="130" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="131" operator="equal">
       <formula>"AB"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="132" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="133" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="134" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="135" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G43:H43 J43:N43">
-    <cfRule type="cellIs" dxfId="73" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="124" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="125" operator="equal">
       <formula>"AB"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="126" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="127" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="128" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="129" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4:R4">
-    <cfRule type="cellIs" dxfId="67" priority="122" operator="notEqual">
+    <cfRule type="cellIs" dxfId="49" priority="122" operator="notEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="123" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27:I41 I7:I25">
-    <cfRule type="cellIs" dxfId="65" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="80" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="81" operator="equal">
       <formula>"AB"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="82" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="83" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="84" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="85" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42">
-    <cfRule type="cellIs" dxfId="59" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="74" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="75" operator="equal">
       <formula>"AB"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="76" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="77" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="78" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="79" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43">
-    <cfRule type="cellIs" dxfId="53" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="68" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="69" operator="equal">
       <formula>"AB"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="70" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="71" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="72" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="73" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O7:O25 O27:O41">
+  <conditionalFormatting sqref="O17 O24:O25 O29:O36 O39">
     <cfRule type="cellIs" dxfId="29" priority="44" operator="equal">
       <formula>"A"</formula>
     </cfRule>
@@ -3446,7 +3320,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D27:O43 D7:O25" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:O25 D27:O43" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1 xml:space="preserve"> Note</formula1>
     </dataValidation>
   </dataValidations>
@@ -3465,18 +3339,18 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -3490,7 +3364,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -3504,7 +3378,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -3518,7 +3392,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -3532,7 +3406,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>

--- a/Organisation/Auto-Eval-ASI2-r1.xlsx
+++ b/Organisation/Auto-Eval-ASI2-r1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5426F0-629B-4B3C-9E5A-A4C50BEC5687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB462790-A330-4B8A-888A-C91CC6812A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Auto-Evaluation" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Auteur</author>
+    <author>Author</author>
   </authors>
   <commentList>
     <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
@@ -97,7 +97,7 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Auteur</author>
+    <author>Author</author>
   </authors>
   <commentList>
     <comment ref="A6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
@@ -454,7 +454,133 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="68">
+  <dxfs count="80">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -885,48 +1011,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -957,7 +1041,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1280,11 +1364,11 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P44" sqref="P44"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="27.44140625" style="1" customWidth="1"/>
   </cols>
@@ -1392,25 +1476,25 @@
         <v>0.25</v>
       </c>
       <c r="F4" s="5">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G4" s="5">
         <v>0.25</v>
       </c>
       <c r="H4" s="5">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I4" s="5">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="J4" s="5">
         <v>0.25</v>
       </c>
       <c r="K4" s="5">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="L4" s="5">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M4" s="5">
         <v>0.25</v>
@@ -1419,7 +1503,7 @@
         <v>0.25</v>
       </c>
       <c r="O4" s="5">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="P4" s="10">
         <f>D4+G4+J4+M4</f>
@@ -1427,11 +1511,11 @@
       </c>
       <c r="Q4" s="5">
         <f>E4+H4+K4+N4</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R4" s="5">
         <f>F4+I4+L4+O4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
@@ -1496,11 +1580,11 @@
       <c r="G7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" t="s">
-        <v>14</v>
+      <c r="H7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>13</v>
@@ -1539,11 +1623,11 @@
       <c r="G8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" t="s">
-        <v>14</v>
+      <c r="H8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="J8" s="11" t="s">
         <v>10</v>
@@ -1583,10 +1667,10 @@
         <v>11</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J9" s="11" t="s">
         <v>11</v>
@@ -1625,11 +1709,11 @@
       <c r="G10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" t="s">
-        <v>14</v>
+      <c r="H10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="J10" s="11" t="s">
         <v>10</v>
@@ -1668,11 +1752,11 @@
       <c r="G11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" t="s">
-        <v>14</v>
+      <c r="H11" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="J11" s="11" t="s">
         <v>10</v>
@@ -1711,11 +1795,11 @@
       <c r="G12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" t="s">
-        <v>14</v>
+      <c r="H12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="J12" s="11" t="s">
         <v>10</v>
@@ -1754,11 +1838,11 @@
       <c r="G13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" t="s">
-        <v>14</v>
+      <c r="H13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="J13" s="11" t="s">
         <v>13</v>
@@ -1797,11 +1881,11 @@
       <c r="G14" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" t="s">
-        <v>14</v>
+      <c r="H14" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="J14" s="11" t="s">
         <v>13</v>
@@ -1841,10 +1925,10 @@
         <v>13</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I15" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J15" s="11" t="s">
         <v>10</v>
@@ -1884,10 +1968,10 @@
         <v>11</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I16" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J16" s="11" t="s">
         <v>10</v>
@@ -1927,10 +2011,10 @@
         <v>11</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J17" s="11" t="s">
         <v>13</v>
@@ -1970,10 +2054,10 @@
         <v>10</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I18" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J18" s="11" t="s">
         <v>10</v>
@@ -2013,10 +2097,10 @@
         <v>12</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I19" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J19" s="11" t="s">
         <v>13</v>
@@ -2056,10 +2140,10 @@
         <v>10</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J20" s="11" t="s">
         <v>10</v>
@@ -2099,10 +2183,10 @@
         <v>13</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I21" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J21" s="11" t="s">
         <v>10</v>
@@ -2142,10 +2226,10 @@
         <v>10</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J22" s="11" t="s">
         <v>10</v>
@@ -2185,10 +2269,10 @@
         <v>10</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J23" s="11" t="s">
         <v>10</v>
@@ -2228,10 +2312,10 @@
         <v>10</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J24" s="11" t="s">
         <v>10</v>
@@ -2271,10 +2355,10 @@
         <v>11</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I25" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J25" s="11" t="s">
         <v>10</v>
@@ -2333,10 +2417,10 @@
         <v>11</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J27" s="11" t="s">
         <v>10</v>
@@ -2376,10 +2460,10 @@
         <v>10</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I28" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J28" s="11" t="s">
         <v>10</v>
@@ -2419,10 +2503,10 @@
         <v>9</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I29" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J29" s="11" t="s">
         <v>9</v>
@@ -2461,11 +2545,11 @@
       <c r="G30" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H30" t="s">
-        <v>14</v>
-      </c>
-      <c r="I30" t="s">
-        <v>14</v>
+      <c r="H30" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="J30" s="11" t="s">
         <v>10</v>
@@ -2505,10 +2589,10 @@
         <v>11</v>
       </c>
       <c r="H31" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I31" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J31" s="11" t="s">
         <v>10</v>
@@ -2547,11 +2631,11 @@
       <c r="G32" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H32" t="s">
-        <v>14</v>
-      </c>
-      <c r="I32" t="s">
-        <v>14</v>
+      <c r="H32" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="J32" s="11" t="s">
         <v>10</v>
@@ -2590,11 +2674,11 @@
       <c r="G33" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H33" t="s">
-        <v>14</v>
-      </c>
-      <c r="I33" t="s">
-        <v>14</v>
+      <c r="H33" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="J33" s="11" t="s">
         <v>10</v>
@@ -2633,11 +2717,11 @@
       <c r="G34" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H34" t="s">
-        <v>14</v>
-      </c>
-      <c r="I34" t="s">
-        <v>14</v>
+      <c r="H34" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="J34" s="11" t="s">
         <v>11</v>
@@ -2677,10 +2761,10 @@
         <v>13</v>
       </c>
       <c r="H35" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I35" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J35" s="11" t="s">
         <v>11</v>
@@ -2720,10 +2804,10 @@
         <v>13</v>
       </c>
       <c r="H36" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I36" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J36" s="11" t="s">
         <v>13</v>
@@ -2763,10 +2847,10 @@
         <v>10</v>
       </c>
       <c r="H37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J37" s="11" t="s">
         <v>13</v>
@@ -2806,10 +2890,10 @@
         <v>10</v>
       </c>
       <c r="H38" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I38" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J38" s="11" t="s">
         <v>13</v>
@@ -2848,11 +2932,11 @@
       <c r="G39" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H39" t="s">
-        <v>14</v>
-      </c>
-      <c r="I39" t="s">
-        <v>14</v>
+      <c r="H39" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="J39" s="11" t="s">
         <v>11</v>
@@ -2891,11 +2975,11 @@
       <c r="G40" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H40" t="s">
-        <v>14</v>
-      </c>
-      <c r="I40" t="s">
-        <v>14</v>
+      <c r="H40" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="J40" s="11" t="s">
         <v>10</v>
@@ -2934,11 +3018,11 @@
       <c r="G41" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H41" t="s">
-        <v>14</v>
-      </c>
-      <c r="I41" t="s">
-        <v>14</v>
+      <c r="H41" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="J41" s="11" t="s">
         <v>11</v>
@@ -2977,11 +3061,11 @@
       <c r="G42" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H42" t="s">
-        <v>14</v>
+      <c r="H42" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="I42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J42" s="11" t="s">
         <v>9</v>
@@ -3020,11 +3104,11 @@
       <c r="G43" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H43" t="s">
-        <v>14</v>
+      <c r="H43" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="I43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J43" s="11" t="s">
         <v>9</v>
@@ -3057,196 +3141,156 @@
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="M1:O1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G27:H41 D7:H25 D27:F43 J7:K25 J27:K41 M17:N25 M7:O16 O18:O23 O27:O28 M27:N36 M39:N39 M37:O38 M40:O41">
-    <cfRule type="cellIs" dxfId="67" priority="150" operator="equal">
+  <conditionalFormatting sqref="D27:F43 J7:K25 J27:K41 M17:N25 M7:O16 O18:O23 O27:O28 M27:N36 M39:N39 M37:O38 M40:O41 D15:H25 D7:I14 I15:I24 G35:H38 G27:I34 I37:I38 G39:I41">
+    <cfRule type="cellIs" dxfId="17" priority="162" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="163" operator="equal">
       <formula>"AB"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="164" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="165" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="166" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="167" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G42:H42 J42:N42">
-    <cfRule type="cellIs" dxfId="61" priority="130" operator="equal">
+  <conditionalFormatting sqref="J42:N42 G42:H42">
+    <cfRule type="cellIs" dxfId="79" priority="142" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="143" operator="equal">
       <formula>"AB"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="144" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="145" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="146" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="147" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G43:H43 J43:N43">
-    <cfRule type="cellIs" dxfId="55" priority="124" operator="equal">
+  <conditionalFormatting sqref="J43:N43 G43:H43">
+    <cfRule type="cellIs" dxfId="73" priority="136" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="137" operator="equal">
       <formula>"AB"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="138" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="139" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="140" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="141" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4:R4">
-    <cfRule type="cellIs" dxfId="49" priority="122" operator="notEqual">
+    <cfRule type="cellIs" dxfId="67" priority="134" operator="notEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="135" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I27:I41 I7:I25">
-    <cfRule type="cellIs" dxfId="47" priority="80" operator="equal">
+  <conditionalFormatting sqref="I35:I36 I25">
+    <cfRule type="cellIs" dxfId="65" priority="92" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="93" operator="equal">
       <formula>"AB"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="94" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="95" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="96" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="85" operator="equal">
-      <formula>"-"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I42">
-    <cfRule type="cellIs" dxfId="41" priority="74" operator="equal">
-      <formula>"A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="75" operator="equal">
-      <formula>"AB"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="76" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="77" operator="equal">
-      <formula>"C"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="78" operator="equal">
-      <formula>"D"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="79" operator="equal">
-      <formula>"-"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I43">
-    <cfRule type="cellIs" dxfId="35" priority="68" operator="equal">
-      <formula>"A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="69" operator="equal">
-      <formula>"AB"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="70" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="71" operator="equal">
-      <formula>"C"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="72" operator="equal">
-      <formula>"D"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="97" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O17 O24:O25 O29:O36 O39">
-    <cfRule type="cellIs" dxfId="29" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="56" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="57" operator="equal">
       <formula>"AB"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="58" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="59" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="60" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="61" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O42">
-    <cfRule type="cellIs" dxfId="23" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="50" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="51" operator="equal">
       <formula>"AB"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="52" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="53" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="54" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="55" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O43">
-    <cfRule type="cellIs" dxfId="17" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="44" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="45" operator="equal">
       <formula>"AB"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="46" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="47" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="48" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="49" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:O4">
-    <cfRule type="colorScale" priority="250">
+    <cfRule type="colorScale" priority="262">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="0.5"/>
@@ -3256,7 +3300,7 @@
         <color rgb="FF00B050"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="251">
+    <cfRule type="colorScale" priority="263">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3268,7 +3312,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:F7">
-    <cfRule type="colorScale" priority="13">
+    <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3280,6 +3324,46 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27:L41">
+    <cfRule type="cellIs" dxfId="29" priority="19" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="20" operator="equal">
+      <formula>"AB"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="21" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="22" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="23" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="24" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L7:L25">
+    <cfRule type="cellIs" dxfId="23" priority="13" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="14" operator="equal">
+      <formula>"AB"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="15" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="16" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I42">
     <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
       <formula>"A"</formula>
     </cfRule>
@@ -3299,7 +3383,7 @@
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L7:L25">
+  <conditionalFormatting sqref="I43">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
@@ -3339,7 +3423,7 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="48.88671875" bestFit="1" customWidth="1"/>
